--- a/notebook/rdp_report_pro.xlsx
+++ b/notebook/rdp_report_pro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD44E9C1-C4B5-43E8-8A55-14CC77C19D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB72A05-AEAA-4F76-B083-4449986243F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22416" yWindow="588" windowWidth="21204" windowHeight="9972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22140" yWindow="864" windowWidth="21204" windowHeight="9972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>{{ historical_title }}</t>
-  </si>
-  <si>
-    <t>{{graph}}</t>
-  </si>
-  <si>
-    <t>&lt;frame&gt;</t>
-  </si>
-  <si>
-    <t>{{ df_historical }}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>VOD.L Historical Data</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>OPEN_PRC</t>
+  </si>
+  <si>
+    <t>HIGH_1</t>
+  </si>
+  <si>
+    <t>LOW_1</t>
+  </si>
+  <si>
+    <t>TRDPRC_1</t>
+  </si>
+  <si>
+    <t>NUM_MOVES</t>
   </si>
 </sst>
 </file>
@@ -106,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,6 +148,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600493</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617C4FD5-2321-432F-92F7-9F2940ACE0EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="2362200"/>
+          <a:ext cx="7306092" cy="3776786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -397,49 +468,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="A3" sqref="A3:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="4">
+        <v>43987</v>
+      </c>
+      <c r="B3">
+        <v>138.94</v>
+      </c>
+      <c r="C3">
+        <v>138.96</v>
+      </c>
+      <c r="D3">
+        <v>137.5</v>
+      </c>
+      <c r="E3">
+        <v>139.08000000000001</v>
+      </c>
+      <c r="F3">
+        <v>136.08000000000001</v>
+      </c>
+      <c r="G3">
+        <v>138.96</v>
+      </c>
+      <c r="H3">
+        <v>11592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>43990</v>
+      </c>
+      <c r="B4">
+        <v>141.12</v>
+      </c>
+      <c r="C4">
+        <v>141.13999999999999</v>
+      </c>
+      <c r="D4">
+        <v>137.34</v>
+      </c>
+      <c r="E4">
+        <v>142.44</v>
+      </c>
+      <c r="F4">
+        <v>137.04</v>
+      </c>
+      <c r="G4">
+        <v>141.58000000000001</v>
+      </c>
+      <c r="H4">
+        <v>15718</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
+      <c r="A5" s="4">
+        <v>43991</v>
+      </c>
+      <c r="B5">
+        <v>138.94</v>
+      </c>
+      <c r="C5">
+        <v>139</v>
+      </c>
+      <c r="D5">
+        <v>140.52000000000001</v>
+      </c>
+      <c r="E5">
+        <v>141.66</v>
+      </c>
+      <c r="F5">
+        <v>138.30000000000001</v>
+      </c>
+      <c r="G5">
+        <v>139.67169999999999</v>
+      </c>
+      <c r="H5">
+        <v>16127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43992</v>
+      </c>
+      <c r="B6">
+        <v>136.26</v>
+      </c>
+      <c r="C6">
+        <v>136.28</v>
+      </c>
+      <c r="D6">
+        <v>138.02000000000001</v>
+      </c>
+      <c r="E6">
+        <v>138.63999999999999</v>
+      </c>
+      <c r="F6">
+        <v>135.28</v>
+      </c>
+      <c r="G6">
+        <v>136.74809999999999</v>
+      </c>
+      <c r="H6">
+        <v>18794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43993</v>
+      </c>
+      <c r="B7">
+        <v>125.84</v>
+      </c>
+      <c r="C7">
+        <v>125.94</v>
+      </c>
+      <c r="D7">
+        <v>131.47999999999999</v>
+      </c>
+      <c r="E7">
+        <v>132.38</v>
+      </c>
+      <c r="F7">
+        <v>125.94</v>
+      </c>
+      <c r="G7">
+        <v>126.66379999999999</v>
+      </c>
+      <c r="H7">
+        <v>19040</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>43994</v>
+      </c>
+      <c r="B8">
+        <v>126.08</v>
+      </c>
+      <c r="C8">
+        <v>126.1</v>
+      </c>
+      <c r="D8">
+        <v>124.66</v>
+      </c>
+      <c r="E8">
+        <v>127.9</v>
+      </c>
+      <c r="F8">
+        <v>122.24</v>
+      </c>
+      <c r="G8">
+        <v>126.1</v>
+      </c>
+      <c r="H8">
+        <v>16595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>43997</v>
+      </c>
+      <c r="B9">
+        <v>124.44</v>
+      </c>
+      <c r="C9">
+        <v>124.46</v>
+      </c>
+      <c r="D9">
+        <v>123.76</v>
+      </c>
+      <c r="E9">
+        <v>125.06</v>
+      </c>
+      <c r="F9">
+        <v>122.7</v>
+      </c>
+      <c r="G9">
+        <v>124.46</v>
+      </c>
+      <c r="H9">
+        <v>13748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>43998</v>
+      </c>
+      <c r="B10">
+        <v>129.1</v>
+      </c>
+      <c r="C10">
+        <v>129.12</v>
+      </c>
+      <c r="D10">
+        <v>126.94</v>
+      </c>
+      <c r="E10">
+        <v>130.56</v>
+      </c>
+      <c r="F10">
+        <v>126.2</v>
+      </c>
+      <c r="G10">
+        <v>128.98285999999999</v>
+      </c>
+      <c r="H10">
+        <v>14998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>43999</v>
+      </c>
+      <c r="B11">
+        <v>129.08000000000001</v>
+      </c>
+      <c r="C11">
+        <v>129.1</v>
+      </c>
+      <c r="D11">
+        <v>129.5</v>
+      </c>
+      <c r="E11">
+        <v>131.06</v>
+      </c>
+      <c r="F11">
+        <v>128.54</v>
+      </c>
+      <c r="G11">
+        <v>129.1</v>
+      </c>
+      <c r="H11">
+        <v>13539</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>44000</v>
+      </c>
+      <c r="B12">
+        <v>127</v>
+      </c>
+      <c r="C12">
+        <v>127.02</v>
+      </c>
+      <c r="D12">
+        <v>128.54</v>
+      </c>
+      <c r="E12">
+        <v>129.28</v>
+      </c>
+      <c r="F12">
+        <v>126.56</v>
+      </c>
+      <c r="G12">
+        <v>127.26</v>
+      </c>
+      <c r="H12">
+        <v>8733</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/notebook/rdp_report_pro.xlsx
+++ b/notebook/rdp_report_pro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_project\notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U8004042\Desktop\xlwings_Oct14\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB72A05-AEAA-4F76-B083-4449986243F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDEF3D7-2716-4EE0-89B3-CA76EE02BCE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22140" yWindow="864" windowWidth="21204" windowHeight="9972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22092" yWindow="960" windowWidth="22044" windowHeight="9972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,22 +155,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600493</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>157286</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2842</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44372</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{617C4FD5-2321-432F-92F7-9F2940ACE0EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22DB8BA-5B43-4873-A49E-3B5C749BEFC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -192,8 +192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="2362200"/>
-          <a:ext cx="7306092" cy="3776786"/>
+          <a:off x="0" y="2362200"/>
+          <a:ext cx="7318042" cy="3854372"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,262 +516,262 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43987</v>
+        <v>43992</v>
       </c>
       <c r="B3">
-        <v>138.94</v>
+        <v>136.26</v>
       </c>
       <c r="C3">
-        <v>138.96</v>
+        <v>136.28</v>
       </c>
       <c r="D3">
-        <v>137.5</v>
+        <v>138.02000000000001</v>
       </c>
       <c r="E3">
-        <v>139.08000000000001</v>
+        <v>138.63999999999999</v>
       </c>
       <c r="F3">
-        <v>136.08000000000001</v>
+        <v>135.28</v>
       </c>
       <c r="G3">
-        <v>138.96</v>
+        <v>136.74809999999999</v>
       </c>
       <c r="H3">
-        <v>11592</v>
+        <v>18794</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43990</v>
+        <v>43993</v>
       </c>
       <c r="B4">
-        <v>141.12</v>
+        <v>125.84</v>
       </c>
       <c r="C4">
-        <v>141.13999999999999</v>
+        <v>125.94</v>
       </c>
       <c r="D4">
-        <v>137.34</v>
+        <v>131.47999999999999</v>
       </c>
       <c r="E4">
-        <v>142.44</v>
+        <v>132.38</v>
       </c>
       <c r="F4">
-        <v>137.04</v>
+        <v>125.94</v>
       </c>
       <c r="G4">
-        <v>141.58000000000001</v>
+        <v>126.66379999999999</v>
       </c>
       <c r="H4">
-        <v>15718</v>
+        <v>19040</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43991</v>
+        <v>43994</v>
       </c>
       <c r="B5">
-        <v>138.94</v>
+        <v>126.08</v>
       </c>
       <c r="C5">
-        <v>139</v>
+        <v>126.1</v>
       </c>
       <c r="D5">
-        <v>140.52000000000001</v>
+        <v>124.66</v>
       </c>
       <c r="E5">
-        <v>141.66</v>
+        <v>127.9</v>
       </c>
       <c r="F5">
-        <v>138.30000000000001</v>
+        <v>122.24</v>
       </c>
       <c r="G5">
-        <v>139.67169999999999</v>
+        <v>126.1</v>
       </c>
       <c r="H5">
-        <v>16127</v>
+        <v>16595</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43992</v>
+        <v>43997</v>
       </c>
       <c r="B6">
-        <v>136.26</v>
+        <v>124.44</v>
       </c>
       <c r="C6">
-        <v>136.28</v>
+        <v>124.46</v>
       </c>
       <c r="D6">
-        <v>138.02000000000001</v>
+        <v>123.76</v>
       </c>
       <c r="E6">
-        <v>138.63999999999999</v>
+        <v>125.06</v>
       </c>
       <c r="F6">
-        <v>135.28</v>
+        <v>122.7</v>
       </c>
       <c r="G6">
-        <v>136.74809999999999</v>
+        <v>124.46</v>
       </c>
       <c r="H6">
-        <v>18794</v>
+        <v>13748</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43993</v>
+        <v>43998</v>
       </c>
       <c r="B7">
-        <v>125.84</v>
+        <v>129.1</v>
       </c>
       <c r="C7">
-        <v>125.94</v>
+        <v>129.12</v>
       </c>
       <c r="D7">
-        <v>131.47999999999999</v>
+        <v>126.94</v>
       </c>
       <c r="E7">
-        <v>132.38</v>
+        <v>130.56</v>
       </c>
       <c r="F7">
-        <v>125.94</v>
+        <v>126.2</v>
       </c>
       <c r="G7">
-        <v>126.66379999999999</v>
+        <v>128.98285999999999</v>
       </c>
       <c r="H7">
-        <v>19040</v>
+        <v>14998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43994</v>
+        <v>43999</v>
       </c>
       <c r="B8">
-        <v>126.08</v>
+        <v>129.08000000000001</v>
       </c>
       <c r="C8">
-        <v>126.1</v>
+        <v>129.1</v>
       </c>
       <c r="D8">
-        <v>124.66</v>
+        <v>129.5</v>
       </c>
       <c r="E8">
-        <v>127.9</v>
+        <v>131.06</v>
       </c>
       <c r="F8">
-        <v>122.24</v>
+        <v>128.54</v>
       </c>
       <c r="G8">
-        <v>126.1</v>
+        <v>129.1</v>
       </c>
       <c r="H8">
-        <v>16595</v>
+        <v>13539</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>43997</v>
+        <v>44000</v>
       </c>
       <c r="B9">
-        <v>124.44</v>
+        <v>127</v>
       </c>
       <c r="C9">
-        <v>124.46</v>
+        <v>127.02</v>
       </c>
       <c r="D9">
-        <v>123.76</v>
+        <v>128.54</v>
       </c>
       <c r="E9">
-        <v>125.06</v>
+        <v>129.28</v>
       </c>
       <c r="F9">
-        <v>122.7</v>
+        <v>126.56</v>
       </c>
       <c r="G9">
-        <v>124.46</v>
+        <v>127.26</v>
       </c>
       <c r="H9">
-        <v>13748</v>
+        <v>8733</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>43998</v>
+        <v>44001</v>
       </c>
       <c r="B10">
-        <v>129.1</v>
+        <v>127.76</v>
       </c>
       <c r="C10">
-        <v>129.12</v>
+        <v>127.78</v>
       </c>
       <c r="D10">
-        <v>126.94</v>
+        <v>127.66</v>
       </c>
       <c r="E10">
-        <v>130.56</v>
+        <v>130.22</v>
       </c>
       <c r="F10">
-        <v>126.2</v>
+        <v>127.14</v>
       </c>
       <c r="G10">
-        <v>128.98285999999999</v>
+        <v>128.43521000000001</v>
       </c>
       <c r="H10">
-        <v>14998</v>
+        <v>9493</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>43999</v>
+        <v>44004</v>
       </c>
       <c r="B11">
-        <v>129.08000000000001</v>
+        <v>126.78</v>
       </c>
       <c r="C11">
-        <v>129.1</v>
+        <v>126.84</v>
       </c>
       <c r="D11">
-        <v>129.5</v>
+        <v>126.86</v>
       </c>
       <c r="E11">
-        <v>131.06</v>
+        <v>128.32</v>
       </c>
       <c r="F11">
-        <v>128.54</v>
+        <v>125.86</v>
       </c>
       <c r="G11">
-        <v>129.1</v>
+        <v>126.78</v>
       </c>
       <c r="H11">
-        <v>13539</v>
+        <v>7383</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44000</v>
+        <v>44005</v>
       </c>
       <c r="B12">
-        <v>127</v>
+        <v>129.13999999999999</v>
       </c>
       <c r="C12">
-        <v>127.02</v>
+        <v>129.16</v>
       </c>
       <c r="D12">
-        <v>128.54</v>
+        <v>127.58</v>
       </c>
       <c r="E12">
-        <v>129.28</v>
+        <v>130.72</v>
       </c>
       <c r="F12">
-        <v>126.56</v>
+        <v>127.22</v>
       </c>
       <c r="G12">
-        <v>127.26</v>
+        <v>129.13999999999999</v>
       </c>
       <c r="H12">
-        <v>8733</v>
+        <v>11552</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/rdp_report_pro.xlsx
+++ b/notebook/rdp_report_pro.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U8004042\Desktop\xlwings_Oct14\notebook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drive_d\Project\Code\xlwings_project\notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDEF3D7-2716-4EE0-89B3-CA76EE02BCE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38EBFF5-22A9-4AAD-B1DE-C247DAFE6263}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22092" yWindow="960" windowWidth="22044" windowHeight="9972" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-420" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,20 +157,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2842</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>44372</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>320804</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22DB8BA-5B43-4873-A49E-3B5C749BEFC0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6730F1FD-478F-475C-A3E0-E4ABF93D954B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -192,8 +192,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="2362200"/>
-          <a:ext cx="7318042" cy="3854372"/>
+          <a:off x="0" y="2362201"/>
+          <a:ext cx="7321679" cy="3721367"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -471,10 +471,18 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H12"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
@@ -516,262 +524,262 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>43992</v>
+        <v>44019</v>
       </c>
       <c r="B3">
-        <v>136.26</v>
+        <v>127.02</v>
       </c>
       <c r="C3">
-        <v>136.28</v>
+        <v>127.04</v>
       </c>
       <c r="D3">
-        <v>138.02000000000001</v>
+        <v>130.08000000000001</v>
       </c>
       <c r="E3">
-        <v>138.63999999999999</v>
+        <v>130.32</v>
       </c>
       <c r="F3">
-        <v>135.28</v>
+        <v>126.98</v>
       </c>
       <c r="G3">
-        <v>136.74809999999999</v>
+        <v>127.02</v>
       </c>
       <c r="H3">
-        <v>18794</v>
+        <v>8403</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>43993</v>
+        <v>44020</v>
       </c>
       <c r="B4">
-        <v>125.84</v>
+        <v>125.28</v>
       </c>
       <c r="C4">
-        <v>125.94</v>
+        <v>125.3</v>
       </c>
       <c r="D4">
-        <v>131.47999999999999</v>
+        <v>126.26</v>
       </c>
       <c r="E4">
-        <v>132.38</v>
+        <v>128.08000000000001</v>
       </c>
       <c r="F4">
-        <v>125.94</v>
+        <v>125.1</v>
       </c>
       <c r="G4">
-        <v>126.66379999999999</v>
+        <v>125.6</v>
       </c>
       <c r="H4">
-        <v>19040</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43994</v>
+        <v>44021</v>
       </c>
       <c r="B5">
-        <v>126.08</v>
+        <v>122.64</v>
       </c>
       <c r="C5">
-        <v>126.1</v>
+        <v>122.66</v>
       </c>
       <c r="D5">
-        <v>124.66</v>
+        <v>124.22</v>
       </c>
       <c r="E5">
-        <v>127.9</v>
+        <v>125.26</v>
       </c>
       <c r="F5">
-        <v>122.24</v>
+        <v>122.32</v>
       </c>
       <c r="G5">
-        <v>126.1</v>
+        <v>124.29640000000001</v>
       </c>
       <c r="H5">
-        <v>16595</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>43997</v>
+        <v>44022</v>
       </c>
       <c r="B6">
-        <v>124.44</v>
+        <v>123.4</v>
       </c>
       <c r="C6">
-        <v>124.46</v>
+        <v>123.42</v>
       </c>
       <c r="D6">
-        <v>123.76</v>
+        <v>122.08</v>
       </c>
       <c r="E6">
-        <v>125.06</v>
+        <v>123.64</v>
       </c>
       <c r="F6">
-        <v>122.7</v>
+        <v>122</v>
       </c>
       <c r="G6">
-        <v>124.46</v>
+        <v>123.42</v>
       </c>
       <c r="H6">
-        <v>13748</v>
+        <v>7637</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>43998</v>
+        <v>44025</v>
       </c>
       <c r="B7">
-        <v>129.1</v>
+        <v>124.68</v>
       </c>
       <c r="C7">
-        <v>129.12</v>
+        <v>124.72</v>
       </c>
       <c r="D7">
-        <v>126.94</v>
+        <v>125.3</v>
       </c>
       <c r="E7">
-        <v>130.56</v>
+        <v>125.92</v>
       </c>
       <c r="F7">
-        <v>126.2</v>
+        <v>124.04</v>
       </c>
       <c r="G7">
-        <v>128.98285999999999</v>
+        <v>124.72</v>
       </c>
       <c r="H7">
-        <v>14998</v>
+        <v>7585</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>43999</v>
+        <v>44026</v>
       </c>
       <c r="B8">
-        <v>129.08000000000001</v>
+        <v>126.9</v>
       </c>
       <c r="C8">
-        <v>129.1</v>
+        <v>126.92</v>
       </c>
       <c r="D8">
-        <v>129.5</v>
+        <v>124.14</v>
       </c>
       <c r="E8">
-        <v>131.06</v>
+        <v>128.16</v>
       </c>
       <c r="F8">
-        <v>128.54</v>
+        <v>122.94</v>
       </c>
       <c r="G8">
-        <v>129.1</v>
+        <v>126.79657</v>
       </c>
       <c r="H8">
-        <v>13539</v>
+        <v>12439</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>44000</v>
+        <v>44027</v>
       </c>
       <c r="B9">
-        <v>127</v>
+        <v>127.5</v>
       </c>
       <c r="C9">
-        <v>127.02</v>
+        <v>127.54</v>
       </c>
       <c r="D9">
-        <v>128.54</v>
+        <v>127.5</v>
       </c>
       <c r="E9">
-        <v>129.28</v>
+        <v>127.86</v>
       </c>
       <c r="F9">
-        <v>126.56</v>
+        <v>124.72</v>
       </c>
       <c r="G9">
-        <v>127.26</v>
+        <v>126.855</v>
       </c>
       <c r="H9">
-        <v>8733</v>
+        <v>12158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>44001</v>
+        <v>44028</v>
       </c>
       <c r="B10">
-        <v>127.76</v>
+        <v>127.46</v>
       </c>
       <c r="C10">
-        <v>127.78</v>
+        <v>127.54</v>
       </c>
       <c r="D10">
-        <v>127.66</v>
+        <v>127.02</v>
       </c>
       <c r="E10">
-        <v>130.22</v>
+        <v>128.96</v>
       </c>
       <c r="F10">
-        <v>127.14</v>
+        <v>126.84</v>
       </c>
       <c r="G10">
-        <v>128.43521000000001</v>
+        <v>127.94</v>
       </c>
       <c r="H10">
-        <v>9493</v>
+        <v>9279</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>44004</v>
+        <v>44029</v>
       </c>
       <c r="B11">
-        <v>126.78</v>
+        <v>129.78</v>
       </c>
       <c r="C11">
-        <v>126.84</v>
+        <v>129.80000000000001</v>
       </c>
       <c r="D11">
-        <v>126.86</v>
+        <v>127.7</v>
       </c>
       <c r="E11">
-        <v>128.32</v>
+        <v>130.47999999999999</v>
       </c>
       <c r="F11">
-        <v>125.86</v>
+        <v>126.2</v>
       </c>
       <c r="G11">
-        <v>126.78</v>
+        <v>129.048</v>
       </c>
       <c r="H11">
-        <v>7383</v>
+        <v>12281</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>44005</v>
+        <v>44032</v>
       </c>
       <c r="B12">
-        <v>129.13999999999999</v>
+        <v>129.28</v>
       </c>
       <c r="C12">
-        <v>129.16</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="D12">
-        <v>127.58</v>
+        <v>129.84</v>
       </c>
       <c r="E12">
-        <v>130.72</v>
+        <v>130.44</v>
       </c>
       <c r="F12">
-        <v>127.22</v>
+        <v>127.94</v>
       </c>
       <c r="G12">
-        <v>129.13999999999999</v>
+        <v>129.28</v>
       </c>
       <c r="H12">
-        <v>11552</v>
+        <v>9003</v>
       </c>
     </row>
   </sheetData>
